--- a/data/protocol_descr_australian_template.xlsx
+++ b/data/protocol_descr_australian_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DC2AD-AAF6-427D-BECF-BE080F2AF77A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A86CCA-0442-43E0-A8EE-78EA60437B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -462,19 +462,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -536,7 +536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -557,19 +557,19 @@
       <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
   </sheetData>
@@ -612,17 +612,17 @@
       <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -642,46 +642,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F7" s="3"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F8" s="3"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F9" s="3"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F10" s="3"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="F13" s="3"/>
     </row>
@@ -699,15 +699,15 @@
       <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="9" customWidth="1"/>
-    <col min="3" max="3" width="65.5546875" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -722,83 +722,83 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
@@ -813,24 +813,354 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1473B67-BA74-42F8-AEB3-718C16A2BE44}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/protocol_descr_australian_template.xlsx
+++ b/data/protocol_descr_australian_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B00DD64-92BD-4377-905B-1E14778B2C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC8B43-78C8-42ED-B130-1A15A43575A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,32 @@
           <t xml:space="preserve">
 For Australian dataset, add as many observed variables as you need for phenology group, BUT i) use the name Date_BBCH** and replace ** by the adequate BBCH number, ii) put phenology as group name in column B, and iii) d as unit in column D.
 For the other groups, do not modify the list of variables given given in column A, even if the model you use does not simulate them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{159DD91F-C6F5-41C2-ADB1-0357EA6ADA09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The names and list of groups must not be modified.
+The order of the groups can be changed. 
+Order them so that the calibration of the groups does not, or only little, impact the variables of the previous groups in the column.</t>
         </r>
       </text>
     </comment>
@@ -164,6 +190,30 @@
 Parameter names must be spelled as they are used in the model wrapper.
 Put as many almost additive parameters as you have Date_BBCH** variables in tab "variables", column A, except for  Date_BBCH10 which is not observed. =&gt; If you have Date_BBCH10, Date_BBCH30, Date_BBCH65 and DateBBCH90 in tab "variables", column A, then you can include here 3 almost additive parameters for the phenology group.
 Remove the lines for which there is no simulated variables, i.e. for which the column "Name of simulated variable" is set to NA in the tab "variables".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9F089AD9-4F84-4316-9974-35E35F97CA17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Order the groups so that the calibration of the groups does not, or only little, impact the variables of the previous groups in the column.</t>
         </r>
       </text>
     </comment>
@@ -550,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +640,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -935,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1133,7 @@
     <row r="60" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="61" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gp1S8jCovUBvQ3UxZLsBOeBe0mgQbxlKzcm5oonnQT4MgUGyehbdMud73W5aW0PL8KPSFQvcgcq3fcfiqiRWyQ==" saltValue="NlZt83s6AhLdYZqajYAa2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DHJ246bF4p7CGGt5BWL7ri4ykUQeNa0cJQStFqg5FgAxBmtEX6qmLVlZ9qb9Si3lmIEuJmQpg4N9RkTh8B5hgA==" saltValue="WH+ytpK53tMmue5zRMC61A==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6 B7:B38" xr:uid="{56551503-EE38-4E6A-B0CF-AB2C881F47EA}">
       <formula1>"phenology, plant_biomass, grain_number, yield"</formula1>
@@ -1086,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1BACE7-D2DD-4997-AE82-5658B4914043}">
   <dimension ref="A1:G1059"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,7 +9208,7 @@
       <c r="F1059" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A6iIYheyOZPhnTLnEaaopZB4vbwXIgcVRIONyQGemgbeZyqgBsN3VgYDpR82epjkgP0e275cAabH9Tu5CtWZEw==" saltValue="BPk6AlWCgATR5kBeosV+xQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ceu9uswIUNc1gY9oZWX+yJJPpSUSb8Bv+8mVelk8U8bRjDSgefJE1yC2cnDN+cKWLZefq/eAYA0tW3m/dhJncw==" saltValue="UX2l4y/TLN0TGcsnweiIZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B32" xr:uid="{3BECDE99-FD1E-4BDB-9334-8344224BF642}">
       <formula1>"phenology, plant_biomass, grain_number, yield"</formula1>
